--- a/clay_thermo_calculator.xlsx
+++ b/clay_thermo_calculator.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="19200" windowHeight="6975"/>
+    <workbookView minimized="1" xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="6980"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="table 3" sheetId="2" r:id="rId6"/>
     <sheet name="table 4" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -1011,7 +1011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1292,7 +1292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,9 +1325,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1360,6 +1377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1539,32 +1573,32 @@
   <sheetPr published="0"/>
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>127</v>
       </c>
       <c r="C1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +1652,9 @@
       <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10">
+        <v>0.34</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1628,7 +1664,7 @@
       </c>
       <c r="G3">
         <f>IF(D3,F3*D3,0)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H3">
         <v>453</v>
@@ -1636,35 +1672,35 @@
       <c r="I3">
         <v>-363.17</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3">
         <f>IF(D3,G3*H3,"")</f>
-        <v/>
+        <v>77.010000000000005</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3">
         <f>IF(D3,L3*D3*I3,0)</f>
-        <v>0</v>
+        <v>-61.738900000000008</v>
       </c>
       <c r="O3">
         <f>M77</f>
-        <v>-3391.616133333333</v>
+        <v>-5585.7438999999995</v>
       </c>
       <c r="P3">
         <f>'site Mtx'!L84</f>
-        <v>-62.911538673904943</v>
+        <v>-154.02925724446399</v>
       </c>
       <c r="Q3">
         <f>O77</f>
-        <v>-8.0349999999999895</v>
+        <v>-36.249999999999972</v>
       </c>
       <c r="R3" s="11">
         <f>O3+(P3-Q3)</f>
-        <v>-3446.4926720072381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-5703.5231572444636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1703,10 +1739,10 @@
       </c>
       <c r="R4" s="12">
         <f>R3-Q3</f>
-        <v>-3438.4576720072382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-5667.2731572444636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -1746,7 +1782,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -1787,7 +1823,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1828,7 +1864,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1869,7 +1905,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -1910,7 +1946,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1951,7 +1987,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1992,7 +2028,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -2033,7 +2069,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -2073,7 +2109,7 @@
       </c>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -2114,7 +2150,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -2155,7 +2191,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -2192,7 +2228,7 @@
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -2232,7 +2268,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -2273,7 +2309,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -2313,7 +2349,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -2351,7 +2387,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>116</v>
       </c>
@@ -2360,19 +2396,19 @@
       <c r="D21" s="10"/>
       <c r="G21">
         <f>SUM(G3:G20)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J21">
         <f>IF(G21=0,0,SUM(J3:J20)/G21)</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="K21">
         <f>J21+'I mix'!T141</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2413,7 +2449,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -2421,10 +2457,7 @@
       <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="10">
-        <f>(1/3)*0.33</f>
-        <v>0.11</v>
-      </c>
+      <c r="D23" s="10"/>
       <c r="E23">
         <v>2</v>
       </c>
@@ -2434,7 +2467,7 @@
       </c>
       <c r="G23">
         <f t="shared" ref="G23:G31" si="5">IF(D23,F23*D23,0)</f>
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>-230.79</v>
@@ -2442,20 +2475,20 @@
       <c r="I23">
         <v>-272.04000000000002</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="str">
         <f t="shared" si="4"/>
-        <v>-25.386900000000001</v>
+        <v/>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
         <f t="shared" ref="M23:M31" si="6">IF(D23,L23*D23*I23,0)</f>
-        <v>-29.924400000000002</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2463,10 +2496,7 @@
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="10">
-        <f>(1/3)*0.33</f>
-        <v>0.11</v>
-      </c>
+      <c r="D24" s="10"/>
       <c r="E24">
         <v>3</v>
       </c>
@@ -2476,7 +2506,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>-251.75</v>
@@ -2484,20 +2514,20 @@
       <c r="I24">
         <v>-1675.7</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="str">
         <f t="shared" si="4"/>
-        <v>-41.53875</v>
+        <v/>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>-92.163499999999999</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -2505,10 +2535,7 @@
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="10">
-        <f>(1/3)*2.34</f>
-        <v>0.77999999999999992</v>
-      </c>
+      <c r="D25" s="10"/>
       <c r="E25">
         <v>3</v>
       </c>
@@ -2518,7 +2545,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>-290.79000000000002</v>
@@ -2526,20 +2553,20 @@
       <c r="I25">
         <v>-826.23</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="str">
         <f t="shared" si="4"/>
-        <v>-340.22430000000003</v>
+        <v/>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
-        <v>-322.22969999999998</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -2579,7 +2606,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -2619,7 +2646,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -2659,7 +2686,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -2699,7 +2726,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -2739,7 +2766,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>36</v>
@@ -2778,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
@@ -2787,14 +2814,14 @@
       <c r="D32" s="10"/>
       <c r="G32">
         <f>SUM(G22:G31)</f>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <f>IF(G32=0,0,SUM(J22:J31)/G32)</f>
-        <v>-281.7646712802769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -2804,7 +2831,9 @@
       <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>0.34</v>
+      </c>
       <c r="E33">
         <v>2</v>
       </c>
@@ -2814,7 +2843,7 @@
       </c>
       <c r="G33">
         <f>IF(D33,F33*D33,0)</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H33">
         <v>-191.72</v>
@@ -2822,19 +2851,19 @@
       <c r="I33">
         <v>-601.6</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33">
         <f>IF(D33,H33*G33,"")</f>
-        <v/>
+        <v>-65.18480000000001</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
         <f>IF(D33,L33*D33*I33,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-204.54400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -2842,10 +2871,7 @@
       <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="10">
-        <f>(2/3)*0.33</f>
-        <v>0.22</v>
-      </c>
+      <c r="D34" s="10"/>
       <c r="E34">
         <v>2</v>
       </c>
@@ -2855,7 +2881,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G42" si="7">IF(D34,F34*D34,0)</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>-230.79</v>
@@ -2863,19 +2889,19 @@
       <c r="I34">
         <v>-272.04000000000002</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="str">
         <f t="shared" ref="J34:J42" si="8">IF(D34,H34*G34,"")</f>
-        <v>-50.773800000000001</v>
+        <v/>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
         <f t="shared" ref="M34:M67" si="9">IF(D34,L34*D34*I34,0)</f>
-        <v>-59.848800000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -2884,8 +2910,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="10">
-        <f>(2/3)*0.33</f>
-        <v>0.22</v>
+        <v>1.66</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2896,7 +2921,7 @@
       </c>
       <c r="G35">
         <f>IF(D35,F35*D35,0)</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="H35">
         <v>-251.75</v>
@@ -2906,17 +2931,17 @@
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>-83.077500000000001</v>
+        <v>-626.85749999999996</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>-184.327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-1390.8309999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>18</v>
@@ -2924,10 +2949,7 @@
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="10">
-        <f>(2/3)*2.34</f>
-        <v>1.5599999999999998</v>
-      </c>
+      <c r="D36" s="10"/>
       <c r="E36">
         <v>3</v>
       </c>
@@ -2937,7 +2959,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="7"/>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>-290.79000000000002</v>
@@ -2945,19 +2967,19 @@
       <c r="I36">
         <v>-826.23</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="str">
         <f t="shared" si="8"/>
-        <v>-680.44860000000006</v>
+        <v/>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
-        <v>-644.45939999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -2996,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -3035,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -3074,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -3113,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>19</v>
@@ -3152,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>36</v>
@@ -3191,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>116</v>
       </c>
@@ -3200,18 +3222,18 @@
       <c r="D43" s="10"/>
       <c r="G43">
         <f>SUM(G33:G42)</f>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="J43">
         <f>IF(G43=0,0,SUM(J33:J42)/G43)</f>
-        <v>-281.7646712802769</v>
+        <v>-244.53791519434631</v>
       </c>
       <c r="K43">
         <f>J43+'M2 mix'!L85</f>
-        <v>-286.10132270159608</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-248.21202642585126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
@@ -3251,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>16</v>
@@ -3289,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>17</v>
@@ -3327,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>18</v>
@@ -3365,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -3404,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>4</v>
@@ -3443,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -3482,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -3521,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>19</v>
@@ -3560,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>36</v>
@@ -3599,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>116</v>
       </c>
@@ -3619,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -3659,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>16</v>
@@ -3697,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>17</v>
@@ -3735,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>18</v>
@@ -3773,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -3812,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>4</v>
@@ -3851,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -3890,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>9</v>
@@ -3929,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -3968,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
@@ -4007,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -4023,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -4034,8 +4056,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="10">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -4046,7 +4067,7 @@
       </c>
       <c r="G66">
         <f>IF(D66,F66*D66,0)</f>
-        <v>1.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <v>-285.33</v>
@@ -4056,17 +4077,17 @@
       </c>
       <c r="J66">
         <f>IF(D66,H66*G66,"")</f>
-        <v>-380.43999999999994</v>
+        <v>-1141.32</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
         <f>IF(D66,L66*D66*I66,0)</f>
-        <v>-607.13333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-1821.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>35</v>
@@ -4074,10 +4095,7 @@
       <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="10">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="D67" s="10"/>
       <c r="E67">
         <v>3</v>
       </c>
@@ -4087,7 +4105,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G68" si="15">IF(D67,F67*D67,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>-260.45</v>
@@ -4095,19 +4113,19 @@
       <c r="I67">
         <v>-1675.7</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="str">
         <f t="shared" ref="J67:J68" si="16">IF(D67,H67*G67,"")</f>
-        <v>-130.22499999999999</v>
+        <v/>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67">
         <f t="shared" si="9"/>
-        <v>-279.2833333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>38</v>
@@ -4145,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>116</v>
       </c>
@@ -4154,14 +4172,14 @@
       <c r="D69" s="10"/>
       <c r="G69">
         <f>SUM(G66:G68)</f>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <f>IF(G69=0,0,SUM(J66:J68)/G69)</f>
-        <v>-278.54454545454547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-285.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -4172,8 +4190,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="10">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -4184,7 +4201,7 @@
       </c>
       <c r="G70">
         <f>IF(D70,F70*D70,0)</f>
-        <v>1.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H70">
         <v>-285.33</v>
@@ -4194,17 +4211,17 @@
       </c>
       <c r="J70">
         <f>IF(D70,H70*G70,"")</f>
-        <v>-380.43999999999994</v>
+        <v>-1141.32</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
         <f t="shared" si="17"/>
-        <v>-607.13333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-1821.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>35</v>
@@ -4212,10 +4229,7 @@
       <c r="C71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="10">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="D71" s="10"/>
       <c r="E71">
         <v>3</v>
       </c>
@@ -4225,7 +4239,7 @@
       </c>
       <c r="G71">
         <f t="shared" ref="G71:G72" si="18">IF(D71,F71*D71,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>-260.45</v>
@@ -4233,19 +4247,19 @@
       <c r="I71">
         <v>-1675.7</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="str">
         <f t="shared" ref="J71:J72" si="19">IF(D71,H71*G71,"")</f>
-        <v>-130.22499999999999</v>
+        <v/>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71">
         <f t="shared" si="17"/>
-        <v>-279.2833333333333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>38</v>
@@ -4283,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
@@ -4292,17 +4306,17 @@
       <c r="D73" s="10"/>
       <c r="G73">
         <f>SUM(G70:G72)</f>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <f>IF(G73=0,0,SUM(J70:J72)/G73)</f>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="O73" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>27</v>
       </c>
@@ -4313,7 +4327,7 @@
         <v>75</v>
       </c>
       <c r="D74" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4324,7 +4338,7 @@
       </c>
       <c r="G74">
         <f>IF(D74,F74*D74,0)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>-249.58</v>
@@ -4334,21 +4348,21 @@
       </c>
       <c r="J74">
         <f>IF(D74,H74*G74,"")</f>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74">
         <f>IF(D74,L74*D74*I74,0)</f>
-        <v>-71.457499999999996</v>
+        <v>-285.83</v>
       </c>
       <c r="O74">
         <f>G74*(I74-H74)</f>
-        <v>-9.0624999999999929</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-36.249999999999972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>26</v>
@@ -4390,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>28</v>
@@ -4398,9 +4412,7 @@
       <c r="C76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="D76" s="10"/>
       <c r="E76">
         <v>1</v>
       </c>
@@ -4410,7 +4422,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="20"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>-287.2</v>
@@ -4420,21 +4432,21 @@
       </c>
       <c r="J76">
         <f>IF(D76,H76*G76,0)</f>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76">
         <f t="shared" si="17"/>
-        <v>-214.3725</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <f t="shared" si="21"/>
-        <v>1.0275000000000034</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
@@ -4444,24 +4456,24 @@
       </c>
       <c r="J77">
         <f>IF(G77=0,0,SUM(J74:J76)/G77)</f>
-        <v>-277.79499999999996</v>
+        <v>-249.58</v>
       </c>
       <c r="M77">
         <f>SUM(M3:M76)</f>
-        <v>-3391.616133333333</v>
+        <v>-5585.7438999999995</v>
       </c>
       <c r="O77">
         <f>SUM(O74:O76)</f>
-        <v>-8.0349999999999895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-36.249999999999972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G78">
         <f>G21+G32+G43+G54+G65+G69+G73+G77</f>
-        <v>9.0016666666666652</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4496,144 +4508,144 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2">
         <f>input!K21</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C2">
         <f>B2</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:J2" si="0">C2</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="K2">
         <f>J2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3">
         <f>input!J32</f>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:K3" si="1">B3</f>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>-281.7646712802769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4">
         <f>input!$K43</f>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:K4" si="2">B4</f>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>-286.10132270159608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-248.21202642585126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -4678,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4723,142 +4735,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>82</v>
       </c>
       <c r="B7">
         <f>input!J69</f>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:K7" si="5">B7</f>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>-278.54454545454547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-285.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>83</v>
       </c>
       <c r="B8">
         <f>input!J73</f>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:K8" si="6">B8</f>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="D8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="E8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>-278.54454545454547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-285.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>84</v>
       </c>
       <c r="B9">
         <f>input!J74</f>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:K9" si="7">B9</f>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="D9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="E9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="F9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="H9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>-62.395000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-249.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4903,52 +4915,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11">
         <f>input!J76</f>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:K11" si="9">B11</f>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -4980,16 +4992,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <f t="array" ref="B14:K23">TRANSPOSE(B2:K11)</f>
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C14">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4998,30 +5010,30 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H14">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I14">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C15">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5030,30 +5042,30 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H15">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I15">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C16">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5062,30 +5074,30 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H16">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I16">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C17">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5094,30 +5106,30 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H17">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I17">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C18">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5126,30 +5138,30 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H18">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I18">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C19">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5158,30 +5170,30 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H19">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I19">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C20">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5190,30 +5202,30 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H20">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I20">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C21">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5222,30 +5234,30 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H21">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I21">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C22">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5254,30 +5266,30 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H22">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I22">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C23">
-        <v>-281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-286.10132270159608</v>
+        <v>-248.21202642585126</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5286,22 +5298,22 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="H23">
-        <v>-278.54454545454547</v>
+        <v>-285.33</v>
       </c>
       <c r="I23">
-        <v>-62.395000000000003</v>
+        <v>-249.58</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-215.39999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -5333,7 +5345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -5355,11 +5367,11 @@
       </c>
       <c r="G26">
         <f t="shared" ref="G26:H28" si="10">ABS(G14-G2)</f>
-        <v>278.54454545454547</v>
+        <v>738.32999999999993</v>
       </c>
       <c r="H26">
         <f t="shared" si="10"/>
-        <v>278.54454545454547</v>
+        <v>738.32999999999993</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5371,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -5384,7 +5396,7 @@
       </c>
       <c r="D27">
         <f>ABS(D15-D3)</f>
-        <v>4.3366514213191749</v>
+        <v>248.21202642585126</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5394,25 +5406,25 @@
       </c>
       <c r="G27">
         <f t="shared" si="10"/>
-        <v>3.2201258257314294</v>
+        <v>285.33</v>
       </c>
       <c r="H27">
         <f t="shared" si="10"/>
-        <v>3.2201258257314294</v>
+        <v>285.33</v>
       </c>
       <c r="I27">
         <f>ABS(I15-I3)</f>
-        <v>219.36967128027689</v>
+        <v>249.58</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
         <f>ABS(K3-K15)</f>
-        <v>66.364671280276923</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -5421,7 +5433,7 @@
       </c>
       <c r="C28">
         <f>ABS(C16-C4)</f>
-        <v>4.3366514213191749</v>
+        <v>248.21202642585126</v>
       </c>
       <c r="D28">
         <f>ABS(D16-D4)</f>
@@ -5435,25 +5447,25 @@
       </c>
       <c r="G28">
         <f t="shared" si="10"/>
-        <v>7.5567772470506043</v>
+        <v>37.117973574148721</v>
       </c>
       <c r="H28">
         <f t="shared" si="10"/>
-        <v>7.5567772470506043</v>
+        <v>37.117973574148721</v>
       </c>
       <c r="I28">
         <f>ABS(I16-I4)</f>
-        <v>223.70632270159606</v>
+        <v>1.3679735741487491</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
         <f>ABS(K4-K16)</f>
-        <v>70.701322701596098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>248.21202642585126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -5462,7 +5474,7 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:C35" si="11">ABS(C17-C5)</f>
-        <v>281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5490,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -5499,7 +5511,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="11"/>
-        <v>281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5528,21 +5540,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>82</v>
       </c>
       <c r="B31">
         <f>ABS(B19-B7)</f>
-        <v>278.54454545454547</v>
+        <v>738.32999999999993</v>
       </c>
       <c r="C31">
         <f t="shared" si="11"/>
-        <v>3.2201258257314294</v>
+        <v>285.33</v>
       </c>
       <c r="D31">
         <f>ABS(D19-D7)</f>
-        <v>7.5567772470506043</v>
+        <v>37.117973574148721</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5562,28 +5574,28 @@
       </c>
       <c r="J31">
         <f t="shared" si="12"/>
-        <v>278.54454545454547</v>
+        <v>285.33</v>
       </c>
       <c r="K31">
         <f>ABS(K7-K19)</f>
-        <v>63.144545454545494</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>285.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>83</v>
       </c>
       <c r="B32">
         <f>ABS(B20-B8)</f>
-        <v>278.54454545454547</v>
+        <v>738.32999999999993</v>
       </c>
       <c r="C32">
         <f t="shared" si="11"/>
-        <v>3.2201258257314294</v>
+        <v>285.33</v>
       </c>
       <c r="D32">
         <f>ABS(D20-D8)</f>
-        <v>7.5567772470506043</v>
+        <v>37.117973574148721</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5603,14 +5615,14 @@
       </c>
       <c r="J32">
         <f t="shared" si="12"/>
-        <v>278.54454545454547</v>
+        <v>285.33</v>
       </c>
       <c r="K32">
         <f>ABS(K8-K20)</f>
-        <v>63.144545454545494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>285.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -5619,11 +5631,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="11"/>
-        <v>219.36967128027689</v>
+        <v>249.58</v>
       </c>
       <c r="D33">
         <f>ABS(D21-D9)</f>
-        <v>223.70632270159606</v>
+        <v>1.3679735741487491</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5647,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -5656,7 +5668,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="11"/>
-        <v>281.7646712802769</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5671,11 +5683,11 @@
       </c>
       <c r="G34">
         <f>ABS(G22-G10)</f>
-        <v>278.54454545454547</v>
+        <v>285.33</v>
       </c>
       <c r="H34">
         <f>ABS(H22-H10)</f>
-        <v>278.54454545454547</v>
+        <v>285.33</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5687,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5696,11 +5708,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="11"/>
-        <v>66.364671280276923</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>ABS(D23-D11)</f>
-        <v>70.701322701596098</v>
+        <v>248.21202642585126</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5710,11 +5722,11 @@
       </c>
       <c r="G35">
         <f>ABS(G23-G11)</f>
-        <v>63.144545454545494</v>
+        <v>285.33</v>
       </c>
       <c r="H35">
         <f>ABS(H23-H11)</f>
-        <v>63.144545454545494</v>
+        <v>285.33</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5726,142 +5738,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>93</v>
       </c>
       <c r="B38">
         <f>input!G21</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C38">
         <f>B38</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D38">
         <f>C38</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E38">
         <f t="shared" ref="E38:K38" si="13">D38</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J38">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="K38">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
       <c r="B39">
         <f>input!G32</f>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:K47" si="14">B39</f>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f t="shared" si="14"/>
-        <v>1.4449999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>79</v>
       </c>
       <c r="B40">
         <f>input!G43</f>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="C40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="D40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="F40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="G40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="H40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="I40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="J40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="K40">
         <f t="shared" si="14"/>
-        <v>2.8899999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.8299999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -5906,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -5951,142 +5963,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43">
         <f>input!G69</f>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="K43">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>83</v>
       </c>
       <c r="B44">
         <f>input!G73</f>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="K44">
         <f t="shared" si="14"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>84</v>
       </c>
       <c r="B45">
         <f>input!G74</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -6131,52 +6143,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>85</v>
       </c>
       <c r="B47">
         <f>input!G76</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>93</v>
       </c>
@@ -6208,16 +6220,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50">
         <f t="array" ref="B50:K59">TRANSPOSE(B38:K47)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C50">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6226,30 +6238,30 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C51">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6258,30 +6270,30 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C52">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6290,30 +6302,30 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C53">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -6322,30 +6334,30 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C54">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6354,30 +6366,30 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I54">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C55">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6386,30 +6398,30 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C56">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6418,30 +6430,30 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C57">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6450,30 +6462,30 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C58">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6482,30 +6494,30 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C59">
-        <v>1.4449999999999998</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2.8899999999999997</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6514,22 +6526,22 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>1.8333333333333333</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>93</v>
       </c>
@@ -6561,13 +6573,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>93</v>
       </c>
       <c r="B62">
         <f>B38*B50</f>
-        <v>0</v>
+        <v>2.8900000000000006E-2</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:K62" si="15">C38*C50</f>
@@ -6575,7 +6587,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.48109999999999997</v>
       </c>
       <c r="E62">
         <f t="shared" si="15"/>
@@ -6587,15 +6599,15 @@
       </c>
       <c r="G62">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="H62">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="I62">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J62">
         <f t="shared" si="15"/>
@@ -6606,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -6616,11 +6628,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="16"/>
-        <v>2.0880249999999996</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" si="16"/>
-        <v>4.1760499999999992</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" si="16"/>
@@ -6632,15 +6644,15 @@
       </c>
       <c r="G63">
         <f t="shared" si="16"/>
-        <v>2.6491666666666664</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <f t="shared" si="16"/>
-        <v>2.6491666666666664</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <f t="shared" si="16"/>
-        <v>0.36124999999999996</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <f t="shared" si="16"/>
@@ -6648,24 +6660,24 @@
       </c>
       <c r="K63">
         <f t="shared" si="16"/>
-        <v>1.0837499999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>79</v>
       </c>
       <c r="B64">
         <f t="shared" ref="B64:K64" si="17">B40*B52</f>
-        <v>0</v>
+        <v>0.48109999999999997</v>
       </c>
       <c r="C64">
         <f t="shared" si="17"/>
-        <v>4.1760499999999992</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <f t="shared" si="17"/>
-        <v>8.3520999999999983</v>
+        <v>8.008899999999997</v>
       </c>
       <c r="E64">
         <f t="shared" si="17"/>
@@ -6677,15 +6689,15 @@
       </c>
       <c r="G64">
         <f t="shared" si="17"/>
-        <v>5.2983333333333329</v>
+        <v>11.319999999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="17"/>
-        <v>5.2983333333333329</v>
+        <v>11.319999999999999</v>
       </c>
       <c r="I64">
         <f t="shared" si="17"/>
-        <v>0.72249999999999992</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="J64">
         <f t="shared" si="17"/>
@@ -6693,10 +6705,10 @@
       </c>
       <c r="K64">
         <f t="shared" si="17"/>
-        <v>2.1674999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -6786,21 +6798,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:K67" si="20">B43*B55</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="C67">
         <f t="shared" si="20"/>
-        <v>2.6491666666666664</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <f t="shared" si="20"/>
-        <v>5.2983333333333329</v>
+        <v>11.319999999999999</v>
       </c>
       <c r="E67">
         <f t="shared" si="20"/>
@@ -6812,15 +6824,15 @@
       </c>
       <c r="G67">
         <f t="shared" si="20"/>
-        <v>3.3611111111111107</v>
+        <v>16</v>
       </c>
       <c r="H67">
         <f t="shared" si="20"/>
-        <v>3.3611111111111107</v>
+        <v>16</v>
       </c>
       <c r="I67">
         <f t="shared" si="20"/>
-        <v>0.45833333333333331</v>
+        <v>4</v>
       </c>
       <c r="J67">
         <f t="shared" si="20"/>
@@ -6828,24 +6840,24 @@
       </c>
       <c r="K67">
         <f t="shared" si="20"/>
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>83</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:K68" si="21">B44*B56</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="C68">
         <f t="shared" si="21"/>
-        <v>2.6491666666666664</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <f t="shared" si="21"/>
-        <v>5.2983333333333329</v>
+        <v>11.319999999999999</v>
       </c>
       <c r="E68">
         <f t="shared" si="21"/>
@@ -6857,15 +6869,15 @@
       </c>
       <c r="G68">
         <f t="shared" si="21"/>
-        <v>3.3611111111111107</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <f t="shared" si="21"/>
-        <v>3.3611111111111107</v>
+        <v>16</v>
       </c>
       <c r="I68">
         <f t="shared" si="21"/>
-        <v>0.45833333333333331</v>
+        <v>4</v>
       </c>
       <c r="J68">
         <f t="shared" si="21"/>
@@ -6873,24 +6885,24 @@
       </c>
       <c r="K68">
         <f t="shared" si="21"/>
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>84</v>
       </c>
       <c r="B69">
         <f t="shared" ref="B69:K69" si="22">B45*B57</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C69">
         <f t="shared" si="22"/>
-        <v>0.36124999999999996</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <f t="shared" si="22"/>
-        <v>0.72249999999999992</v>
+        <v>2.8299999999999996</v>
       </c>
       <c r="E69">
         <f t="shared" si="22"/>
@@ -6902,15 +6914,15 @@
       </c>
       <c r="G69">
         <f t="shared" si="22"/>
-        <v>0.45833333333333331</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <f t="shared" si="22"/>
-        <v>0.45833333333333331</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <f t="shared" si="22"/>
-        <v>6.25E-2</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <f t="shared" si="22"/>
@@ -6918,10 +6930,10 @@
       </c>
       <c r="K69">
         <f t="shared" si="22"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -6966,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -6976,11 +6988,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="24"/>
-        <v>1.0837499999999998</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" si="24"/>
-        <v>2.1674999999999995</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <f t="shared" si="24"/>
@@ -6992,15 +7004,15 @@
       </c>
       <c r="G71">
         <f t="shared" si="24"/>
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <f t="shared" si="24"/>
-        <v>1.375</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <f t="shared" si="24"/>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <f t="shared" si="24"/>
@@ -7008,10 +7020,10 @@
       </c>
       <c r="K71">
         <f t="shared" si="24"/>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>93</v>
       </c>
@@ -7043,7 +7055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -7069,11 +7081,11 @@
       </c>
       <c r="G74">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>502.06439999999998</v>
       </c>
       <c r="H74">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>502.06439999999998</v>
       </c>
       <c r="I74">
         <f t="shared" si="25"/>
@@ -7089,10 +7101,10 @@
       </c>
       <c r="L74">
         <f>SUM(B74:K74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1004.1288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -7106,7 +7118,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="26"/>
-        <v>18.110073167999936</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <f t="shared" si="26"/>
@@ -7118,15 +7130,15 @@
       </c>
       <c r="G75">
         <f t="shared" si="26"/>
-        <v>8.5306500000001773</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <f t="shared" si="26"/>
-        <v>8.5306500000001773</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <f t="shared" si="26"/>
-        <v>79.247293750000011</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <f t="shared" si="26"/>
@@ -7134,14 +7146,14 @@
       </c>
       <c r="K75">
         <f t="shared" si="26"/>
-        <v>71.922712500000102</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L83" si="27">SUM(B75:K75)</f>
-        <v>186.3413794180004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -7151,7 +7163,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="26"/>
-        <v>18.110073167999936</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <f t="shared" si="26"/>
@@ -7167,15 +7179,15 @@
       </c>
       <c r="G76">
         <f t="shared" si="26"/>
-        <v>40.038324780623114</v>
+        <v>420.17546085936345</v>
       </c>
       <c r="H76">
         <f t="shared" si="26"/>
-        <v>40.038324780623114</v>
+        <v>420.17546085936345</v>
       </c>
       <c r="I76">
         <f t="shared" si="26"/>
-        <v>161.62781815190314</v>
+        <v>3.8713652148409596</v>
       </c>
       <c r="J76">
         <f t="shared" si="26"/>
@@ -7183,14 +7195,14 @@
       </c>
       <c r="K76">
         <f t="shared" si="26"/>
-        <v>153.24511695570951</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <f t="shared" si="27"/>
-        <v>413.05965783685883</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>844.22228693356783</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -7239,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -7288,21 +7300,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>502.06439999999998</v>
       </c>
       <c r="C79">
         <f t="shared" si="26"/>
-        <v>8.5306500000001773</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <f t="shared" si="26"/>
-        <v>40.038324780623114</v>
+        <v>420.17546085936345</v>
       </c>
       <c r="E79">
         <f t="shared" si="26"/>
@@ -7330,28 +7342,28 @@
       </c>
       <c r="K79">
         <f t="shared" si="26"/>
-        <v>86.823750000000047</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <f t="shared" si="27"/>
-        <v>135.39272478062333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>922.23986085936349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>502.06439999999998</v>
       </c>
       <c r="C80">
         <f t="shared" si="26"/>
-        <v>8.5306500000001773</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <f t="shared" si="26"/>
-        <v>40.038324780623114</v>
+        <v>420.17546085936345</v>
       </c>
       <c r="E80">
         <f t="shared" si="26"/>
@@ -7379,14 +7391,14 @@
       </c>
       <c r="K80">
         <f t="shared" si="26"/>
-        <v>86.823750000000047</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <f t="shared" si="27"/>
-        <v>135.39272478062333</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>922.23986085936349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -7396,11 +7408,11 @@
       </c>
       <c r="C81">
         <f t="shared" si="26"/>
-        <v>79.247293750000011</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <f t="shared" si="26"/>
-        <v>161.62781815190314</v>
+        <v>3.8713652148409596</v>
       </c>
       <c r="E81">
         <f t="shared" si="26"/>
@@ -7432,10 +7444,10 @@
       </c>
       <c r="L81">
         <f t="shared" si="27"/>
-        <v>240.87511190190315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.8713652148409596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -7484,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -7494,11 +7506,11 @@
       </c>
       <c r="C83">
         <f t="shared" si="26"/>
-        <v>71.922712500000102</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <f t="shared" si="26"/>
-        <v>153.24511695570951</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <f t="shared" si="26"/>
@@ -7510,11 +7522,11 @@
       </c>
       <c r="G83">
         <f t="shared" si="26"/>
-        <v>86.823750000000047</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <f t="shared" si="26"/>
-        <v>86.823750000000047</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" si="26"/>
@@ -7530,13 +7542,13 @@
       </c>
       <c r="L83">
         <f t="shared" si="27"/>
-        <v>398.81532945570973</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L84">
         <f>-SUM(L74:L83)/(2*12)</f>
-        <v>-62.911538673904943</v>
+        <v>-154.02925724446399</v>
       </c>
     </row>
   </sheetData>
@@ -7553,17 +7565,17 @@
       <selection activeCell="T142" sqref="T142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -7622,7 +7634,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7681,7 +7693,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -7740,7 +7752,7 @@
         <v>-71.22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -7799,7 +7811,7 @@
         <v>544.22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>70.569999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -7917,7 +7929,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -7976,7 +7988,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -8035,7 +8047,7 @@
         <v>-189.17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -8094,7 +8106,7 @@
         <v>-256.22000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -8153,7 +8165,7 @@
         <v>-208.92</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -8212,7 +8224,7 @@
         <v>-215.73</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -8271,7 +8283,7 @@
         <v>-212.38</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -8330,7 +8342,7 @@
         <v>-222.87</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -8389,7 +8401,7 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -8448,7 +8460,7 @@
         <v>-232.84</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -8507,7 +8519,7 @@
         <v>522.89</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -8566,7 +8578,7 @@
         <v>-147.25</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -8625,7 +8637,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -8682,7 +8694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>453</v>
@@ -8739,7 +8751,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>453</v>
@@ -8796,7 +8808,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>453</v>
@@ -8853,7 +8865,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>453</v>
@@ -8910,7 +8922,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>453</v>
@@ -8967,7 +8979,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>453</v>
@@ -9024,7 +9036,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>453</v>
@@ -9081,7 +9093,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>453</v>
@@ -9138,7 +9150,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>453</v>
@@ -9195,7 +9207,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>453</v>
@@ -9252,7 +9264,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>453</v>
@@ -9309,7 +9321,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>453</v>
@@ -9366,7 +9378,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>453</v>
@@ -9423,7 +9435,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>453</v>
@@ -9480,7 +9492,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>453</v>
@@ -9537,7 +9549,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>453</v>
@@ -9594,7 +9606,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>453</v>
@@ -9651,7 +9663,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>453</v>
@@ -9708,7 +9720,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -9765,7 +9777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -9842,7 +9854,7 @@
         <v>281.14999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -9919,7 +9931,7 @@
         <v>88.15</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -9996,7 +10008,7 @@
         <v>243.07</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -10073,7 +10085,7 @@
         <v>372.37</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -10150,7 +10162,7 @@
         <v>101.28</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10239,7 @@
         <v>156.5</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -10304,7 +10316,7 @@
         <v>157.60999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -10381,7 +10393,7 @@
         <v>361.02</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -10458,7 +10470,7 @@
         <v>428.07000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -10535,7 +10547,7 @@
         <v>380.77</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -10612,7 +10624,7 @@
         <v>387.58</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -10689,7 +10701,7 @@
         <v>384.23</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -10766,7 +10778,7 @@
         <v>394.72</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -10843,7 +10855,7 @@
         <v>481.85</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -10920,7 +10932,7 @@
         <v>404.69</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -10997,7 +11009,7 @@
         <v>351.03999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -11074,7 +11086,7 @@
         <v>319.10000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -11151,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -11172,89 +11184,89 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="1">
         <f>input!G3</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C62" s="1">
         <f>$B62</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D62" s="1">
         <f>$B62</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" ref="E62:S77" si="18">$B62</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="S62" s="1">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -11331,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -11408,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
@@ -11485,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -11562,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -11639,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -11716,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -11793,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -11870,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -11947,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -12024,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -12101,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -12178,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -12255,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -12332,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -12409,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -12486,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -12563,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>39</v>
       </c>
@@ -12619,10 +12631,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B82" s="4">
         <f t="array" ref="B82:S99">TRANSPOSE((B62:S79))</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -12676,9 +12688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B83" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -12732,9 +12744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B84" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -12788,9 +12800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B85" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -12844,9 +12856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B86" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
@@ -12900,9 +12912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B87" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -12956,9 +12968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -13012,9 +13024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -13068,9 +13080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B90" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -13124,9 +13136,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B91" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -13180,9 +13192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -13236,9 +13248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -13292,9 +13304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B94" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -13348,9 +13360,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B95" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C95" s="4">
         <v>0</v>
@@ -13404,9 +13416,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B96" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -13460,9 +13472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B97" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C97" s="4">
         <v>0</v>
@@ -13516,9 +13528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B98" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C98" s="4">
         <v>0</v>
@@ -13572,9 +13584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B99" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
@@ -13628,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>39</v>
       </c>
@@ -13684,13 +13696,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B102" s="4">
         <f t="shared" ref="B102:S102" si="21">B62*B82</f>
-        <v>0</v>
+        <v>2.8900000000000006E-2</v>
       </c>
       <c r="C102" s="4">
         <f t="shared" si="21"/>
@@ -13761,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -13838,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
@@ -13915,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>33</v>
       </c>
@@ -13992,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -14069,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -14146,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -14223,7 +14235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
@@ -14300,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -14377,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -14454,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -14531,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -14608,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -14685,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -14762,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -14839,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -14916,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -14993,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -15070,7 +15082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
         <v>39</v>
       </c>
@@ -15126,7 +15138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>39</v>
       </c>
@@ -15207,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -15288,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>34</v>
       </c>
@@ -15369,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>33</v>
       </c>
@@ -15450,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -15531,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
@@ -15612,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -15693,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -15774,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -15855,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -15936,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -16017,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -16098,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -16179,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -16260,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -16341,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -16422,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -16503,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
@@ -16584,13 +16596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="T140" s="4">
         <f>SUM(T122:T139)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="S141" s="4" t="s">
         <v>118</v>
       </c>
@@ -16614,14 +16626,14 @@
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -16656,7 +16668,7 @@
         <v>-191.72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -16691,7 +16703,7 @@
         <v>-230.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -16726,7 +16738,7 @@
         <v>-251.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -16761,7 +16773,7 @@
         <v>-290.79000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -16796,7 +16808,7 @@
         <v>-108.79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -16831,7 +16843,7 @@
         <v>-218.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -16866,7 +16878,7 @@
         <v>-208.92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -16901,7 +16913,7 @@
         <v>-242.78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -16936,7 +16948,7 @@
         <v>-243.61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -16971,7 +16983,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -17003,7 +17015,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14">
         <f t="array" ref="B14:K23">TRANSPOSE(B2:K11)</f>
         <v>-191.72</v>
@@ -17036,7 +17048,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>-191.72</v>
       </c>
@@ -17068,7 +17080,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>-191.72</v>
       </c>
@@ -17100,7 +17112,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>-191.72</v>
       </c>
@@ -17132,7 +17144,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>-191.72</v>
       </c>
@@ -17164,7 +17176,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>-191.72</v>
       </c>
@@ -17196,7 +17208,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>-191.72</v>
       </c>
@@ -17228,7 +17240,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>-191.72</v>
       </c>
@@ -17260,7 +17272,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>-191.72</v>
       </c>
@@ -17292,7 +17304,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>-191.72</v>
       </c>
@@ -17324,7 +17336,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -17356,7 +17368,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -17401,7 +17413,7 @@
         <v>99.330000000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -17446,7 +17458,7 @@
         <v>60.260000000000019</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -17491,7 +17503,7 @@
         <v>39.300000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -17536,7 +17548,7 @@
         <v>0.25999999999999091</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -17581,7 +17593,7 @@
         <v>182.26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -17626,7 +17638,7 @@
         <v>72.110000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -17671,7 +17683,7 @@
         <v>82.130000000000024</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -17716,7 +17728,7 @@
         <v>48.27000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -17761,7 +17773,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -17806,12 +17818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -17856,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -17901,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -17946,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -17991,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -18036,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -18081,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -18126,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -18171,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -18216,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -18261,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -18293,7 +18305,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50">
         <f t="array" ref="B50:K59">TRANSPOSE(B38:K47)</f>
         <v>0</v>
@@ -18326,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0</v>
       </c>
@@ -18358,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
@@ -18390,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0</v>
       </c>
@@ -18422,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0</v>
       </c>
@@ -18454,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>0</v>
       </c>
@@ -18486,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>0</v>
       </c>
@@ -18518,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>0</v>
       </c>
@@ -18550,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0</v>
       </c>
@@ -18582,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>0</v>
       </c>
@@ -18614,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>46</v>
       </c>
@@ -18646,7 +18658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -18691,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -18736,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -18781,7 +18793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -18826,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -18871,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -18916,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -18961,7 +18973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -19006,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -19051,7 +19063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -19096,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>46</v>
       </c>
@@ -19128,7 +19140,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -19177,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -19226,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -19275,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -19324,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -19373,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -19422,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -19471,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -19520,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -19569,7 +19581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -19618,13 +19630,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L84">
         <f>SUM(L74:L83)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K85" t="s">
         <v>120</v>
       </c>
@@ -19647,14 +19659,14 @@
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -19689,7 +19701,7 @@
         <v>-191.72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -19724,7 +19736,7 @@
         <v>-230.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -19759,7 +19771,7 @@
         <v>-251.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -19794,7 +19806,7 @@
         <v>-290.79000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -19829,7 +19841,7 @@
         <v>-108.79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -19864,7 +19876,7 @@
         <v>-218.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -19899,7 +19911,7 @@
         <v>-208.92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -19934,7 +19946,7 @@
         <v>-242.78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -19969,7 +19981,7 @@
         <v>-243.61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -20004,7 +20016,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -20036,7 +20048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="array" ref="B14:K23">TRANSPOSE(B2:K11)</f>
         <v>-191.72</v>
@@ -20069,7 +20081,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>-191.72</v>
       </c>
@@ -20101,7 +20113,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>-191.72</v>
       </c>
@@ -20133,7 +20145,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>-191.72</v>
       </c>
@@ -20165,7 +20177,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>-191.72</v>
       </c>
@@ -20197,7 +20209,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>-191.72</v>
       </c>
@@ -20229,7 +20241,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>-191.72</v>
       </c>
@@ -20261,7 +20273,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>-191.72</v>
       </c>
@@ -20293,7 +20305,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>-191.72</v>
       </c>
@@ -20325,7 +20337,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>-191.72</v>
       </c>
@@ -20357,7 +20369,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
@@ -20389,7 +20401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -20434,7 +20446,7 @@
         <v>99.330000000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -20479,7 +20491,7 @@
         <v>60.260000000000019</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -20524,7 +20536,7 @@
         <v>39.300000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -20569,7 +20581,7 @@
         <v>0.25999999999999091</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -20614,7 +20626,7 @@
         <v>182.26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -20659,7 +20671,7 @@
         <v>72.110000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -20704,7 +20716,7 @@
         <v>82.130000000000024</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -20749,7 +20761,7 @@
         <v>48.27000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -20794,7 +20806,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -20839,192 +20851,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="D38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="J38">
         <f>input!$G33</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="K38">
         <f>input!$G33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <f>input!$G34</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f>input!$G34</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="C40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="D40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="F40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="G40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="H40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="I40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="J40">
         <f>input!$G35</f>
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="K40">
         <f>input!$G35</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.4899999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <f>input!$G36</f>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <f>input!$G36</f>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -21069,7 +21081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -21114,7 +21126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -21159,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -21204,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -21249,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>36</v>
       </c>
@@ -21294,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
@@ -21326,19 +21338,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50">
         <f t="array" ref="B50:K59">TRANSPOSE(B38:K47)</f>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C50">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E50">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -21359,18 +21371,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C51">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E51">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -21391,18 +21403,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C52">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E52">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -21423,18 +21435,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C53">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E53">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -21455,18 +21467,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C54">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E54">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -21487,18 +21499,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C55">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E55">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -21519,18 +21531,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C56">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E56">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -21551,18 +21563,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E57">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -21583,18 +21595,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C58">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E58">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -21615,18 +21627,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="C59">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.33</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="E59">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -21647,7 +21659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
@@ -21679,13 +21691,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B62">
         <f>B38*B50</f>
-        <v>0</v>
+        <v>0.11560000000000002</v>
       </c>
       <c r="C62">
         <f>C38*C50</f>
@@ -21693,7 +21705,7 @@
       </c>
       <c r="D62">
         <f t="shared" ref="D62:K62" si="10">D38*D50</f>
-        <v>0</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="E62">
         <f t="shared" si="10"/>
@@ -21724,7 +21736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -21734,15 +21746,15 @@
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
-        <v>4.8399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" ref="D63:K63" si="12">D39*D51</f>
-        <v>7.2599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" si="12"/>
-        <v>0.51479999999999992</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <f t="shared" si="12"/>
@@ -21769,25 +21781,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B64">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
-        <v>7.2599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <f t="shared" ref="D64:K64" si="13">D40*D52</f>
-        <v>0.10890000000000001</v>
+        <v>6.2000999999999991</v>
       </c>
       <c r="E64">
         <f t="shared" si="13"/>
-        <v>0.7722</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <f t="shared" si="13"/>
@@ -21814,7 +21826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -21824,15 +21836,15 @@
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
-        <v>0.51479999999999992</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <f t="shared" ref="D65:K65" si="14">D41*D53</f>
-        <v>0.7722</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <f t="shared" si="14"/>
-        <v>5.4755999999999991</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <f t="shared" si="14"/>
@@ -21859,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -21904,7 +21916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -21949,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -21994,7 +22006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -22039,7 +22051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>19</v>
       </c>
@@ -22084,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
@@ -22129,7 +22141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
         <v>13</v>
       </c>
@@ -22161,7 +22173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
@@ -22175,7 +22187,7 @@
       </c>
       <c r="D74">
         <f>D62*D26</f>
-        <v>0</v>
+        <v>50.821398000000002</v>
       </c>
       <c r="E74">
         <f t="shared" si="21"/>
@@ -22207,10 +22219,10 @@
       </c>
       <c r="L74">
         <f>SUM(B74:K74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50.821398000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -22224,11 +22236,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="22"/>
-        <v>1.5216960000000006</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <f t="shared" si="22"/>
-        <v>30.888000000000009</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <f t="shared" si="22"/>
@@ -22256,20 +22268,20 @@
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L83" si="23">SUM(B75:K75)</f>
-        <v>32.409696000000011</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B76">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>50.821398000000002</v>
       </c>
       <c r="C76">
         <f t="shared" si="22"/>
-        <v>1.5216960000000006</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <f t="shared" si="22"/>
@@ -22277,7 +22289,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="22"/>
-        <v>30.146688000000015</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <f t="shared" si="22"/>
@@ -22305,10 +22317,10 @@
       </c>
       <c r="L76">
         <f t="shared" si="23"/>
-        <v>31.668384000000017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50.821398000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
@@ -22318,11 +22330,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="22"/>
-        <v>30.888000000000009</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <f t="shared" si="22"/>
-        <v>30.146688000000015</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <f t="shared" si="22"/>
@@ -22354,10 +22366,10 @@
       </c>
       <c r="L77">
         <f t="shared" si="23"/>
-        <v>61.034688000000024</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -22406,7 +22418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -22455,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -22504,7 +22516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -22553,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>19</v>
       </c>
@@ -22602,7 +22614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>36</v>
       </c>
@@ -22651,19 +22663,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L84">
         <f>SUM(L74:L83)/2</f>
-        <v>62.556384000000023</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50.821398000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K85" t="s">
         <v>119</v>
       </c>
       <c r="L85">
         <f>IF(input!G43=0,0,-0.579*L84/((input!G43)^2))</f>
-        <v>-4.3366514213191918</v>
+        <v>-3.674111231504952</v>
       </c>
     </row>
   </sheetData>
@@ -22680,12 +22692,12 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -22693,7 +22705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -22701,7 +22713,7 @@
         <v>-414.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -22709,7 +22721,7 @@
         <v>-363.17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -22717,7 +22729,7 @@
         <v>-634.91999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -22725,7 +22737,7 @@
         <v>-601.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -22733,7 +22745,7 @@
         <v>-272.04000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -22741,7 +22753,7 @@
         <v>-826.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -22749,7 +22761,7 @@
         <v>-1675.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -22757,7 +22769,7 @@
         <v>-910.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -22765,7 +22777,7 @@
         <v>-285.83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -22776,7 +22788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -22787,7 +22799,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -22798,7 +22810,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -22809,7 +22821,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -22820,7 +22832,7 @@
         <v>-134.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -22831,7 +22843,7 @@
         <v>-181.58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -22842,7 +22854,7 @@
         <v>-242.43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -22853,7 +22865,7 @@
         <v>-199.63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -22861,7 +22873,7 @@
         <v>-205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -22892,20 +22904,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -22916,7 +22928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -22927,7 +22939,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -22938,7 +22950,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -22949,14 +22961,14 @@
         <v>-71.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>87</v>
@@ -22965,7 +22977,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -22976,7 +22988,7 @@
         <v>-191.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -22987,7 +22999,7 @@
         <v>-230.79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -22998,7 +23010,7 @@
         <v>-251.75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -23009,14 +23021,14 @@
         <v>-290.79000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>87</v>
@@ -23025,7 +23037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -23036,7 +23048,7 @@
         <v>-285.33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -23047,7 +23059,7 @@
         <v>-260.45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -23058,14 +23070,14 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>87</v>
@@ -23074,7 +23086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -23085,7 +23097,7 @@
         <v>-88.98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -23096,7 +23108,7 @@
         <v>-216.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -23107,7 +23119,7 @@
         <v>-229.05</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -23118,12 +23130,12 @@
         <v>-288.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -23132,7 +23144,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -23141,14 +23153,14 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -23157,14 +23169,14 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -23173,19 +23185,19 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -23194,7 +23206,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -23203,7 +23215,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>

--- a/clay_thermo_calculator.xlsx
+++ b/clay_thermo_calculator.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="6980"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="19200" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="table 3" sheetId="2" r:id="rId6"/>
     <sheet name="table 4" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -1011,7 +1011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1292,7 +1292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,26 +1325,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1377,23 +1360,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1573,32 +1539,32 @@
   <sheetPr published="0"/>
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>127</v>
       </c>
       <c r="C1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1608,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1652,9 +1618,7 @@
       <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="10">
-        <v>0.34</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1664,7 +1628,7 @@
       </c>
       <c r="G3">
         <f>IF(D3,F3*D3,0)</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>453</v>
@@ -1672,35 +1636,35 @@
       <c r="I3">
         <v>-363.17</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="str">
         <f>IF(D3,G3*H3,"")</f>
-        <v>77.010000000000005</v>
+        <v/>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3">
         <f>IF(D3,L3*D3*I3,0)</f>
-        <v>-61.738900000000008</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f>M77</f>
-        <v>-5585.7438999999995</v>
+        <v>-3394.3710499999997</v>
       </c>
       <c r="P3">
         <f>'site Mtx'!L84</f>
-        <v>-154.02925724446399</v>
+        <v>-263.11330462745946</v>
       </c>
       <c r="Q3">
         <f>O77</f>
-        <v>-36.249999999999972</v>
+        <v>-16.069999999999979</v>
       </c>
       <c r="R3" s="11">
         <f>O3+(P3-Q3)</f>
-        <v>-5703.5231572444636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-3641.414354627459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1739,10 +1703,10 @@
       </c>
       <c r="R4" s="12">
         <f>R3-Q3</f>
-        <v>-5667.2731572444636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-3625.3443546274589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -1782,7 +1746,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -1823,7 +1787,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -1864,7 +1828,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1905,7 +1869,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -1946,7 +1910,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -1987,7 +1951,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -2028,7 +1992,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -2069,7 +2033,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -2109,7 +2073,7 @@
       </c>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -2150,7 +2114,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -2191,7 +2155,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
@@ -2228,7 +2192,7 @@
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -2268,7 +2232,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -2309,7 +2273,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -2349,7 +2313,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -2387,7 +2351,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>116</v>
       </c>
@@ -2396,19 +2360,19 @@
       <c r="D21" s="10"/>
       <c r="G21">
         <f>SUM(G3:G20)</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f>IF(G21=0,0,SUM(J3:J20)/G21)</f>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <f>J21+'I mix'!T141</f>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +2413,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -2457,7 +2421,9 @@
       <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>0.78</v>
+      </c>
       <c r="E23">
         <v>2</v>
       </c>
@@ -2467,7 +2433,7 @@
       </c>
       <c r="G23">
         <f t="shared" ref="G23:G31" si="5">IF(D23,F23*D23,0)</f>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="H23">
         <v>-230.79</v>
@@ -2475,20 +2441,20 @@
       <c r="I23">
         <v>-272.04000000000002</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-180.0162</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
         <f t="shared" ref="M23:M31" si="6">IF(D23,L23*D23*I23,0)</f>
-        <v>0</v>
+        <v>-212.19120000000001</v>
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2496,7 +2462,10 @@
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <f>(1/3)*0.33</f>
+        <v>0.11</v>
+      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -2506,7 +2475,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H24">
         <v>-251.75</v>
@@ -2514,20 +2483,20 @@
       <c r="I24">
         <v>-1675.7</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-41.53875</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-92.163499999999999</v>
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -2535,7 +2504,9 @@
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10">
+        <v>0.11</v>
+      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -2545,7 +2516,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H25">
         <v>-290.79000000000002</v>
@@ -2553,20 +2524,20 @@
       <c r="I25">
         <v>-826.23</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-47.980350000000008</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-45.44265</v>
       </c>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -2606,7 +2577,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -2646,7 +2617,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -2686,7 +2657,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -2726,7 +2697,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -2766,7 +2737,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>36</v>
@@ -2805,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
@@ -2814,14 +2785,14 @@
       <c r="D32" s="10"/>
       <c r="G32">
         <f>SUM(G22:G31)</f>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J32">
         <f>IF(G32=0,0,SUM(J22:J31)/G32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-242.82459459459457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -2831,9 +2802,7 @@
       <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="10">
-        <v>0.34</v>
-      </c>
+      <c r="D33" s="10"/>
       <c r="E33">
         <v>2</v>
       </c>
@@ -2843,7 +2812,7 @@
       </c>
       <c r="G33">
         <f>IF(D33,F33*D33,0)</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>-191.72</v>
@@ -2851,19 +2820,19 @@
       <c r="I33">
         <v>-601.6</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="str">
         <f>IF(D33,H33*G33,"")</f>
-        <v>-65.18480000000001</v>
+        <v/>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
         <f>IF(D33,L33*D33*I33,0)</f>
-        <v>-204.54400000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -2871,7 +2840,9 @@
       <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>1.56</v>
+      </c>
       <c r="E34">
         <v>2</v>
       </c>
@@ -2881,7 +2852,7 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G42" si="7">IF(D34,F34*D34,0)</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="H34">
         <v>-230.79</v>
@@ -2889,19 +2860,19 @@
       <c r="I34">
         <v>-272.04000000000002</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34">
         <f t="shared" ref="J34:J42" si="8">IF(D34,H34*G34,"")</f>
-        <v/>
+        <v>-360.0324</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
         <f t="shared" ref="M34:M67" si="9">IF(D34,L34*D34*I34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-424.38240000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -2910,7 +2881,8 @@
         <v>68</v>
       </c>
       <c r="D35" s="10">
-        <v>1.66</v>
+        <f>(2/3)*0.33</f>
+        <v>0.22</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2921,7 +2893,7 @@
       </c>
       <c r="G35">
         <f>IF(D35,F35*D35,0)</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="H35">
         <v>-251.75</v>
@@ -2931,17 +2903,17 @@
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>-626.85749999999996</v>
+        <v>-83.077500000000001</v>
       </c>
       <c r="L35">
         <v>0.5</v>
       </c>
       <c r="M35">
         <f t="shared" si="9"/>
-        <v>-1390.8309999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-184.327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>18</v>
@@ -2949,7 +2921,9 @@
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>0.22</v>
+      </c>
       <c r="E36">
         <v>3</v>
       </c>
@@ -2959,7 +2933,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H36">
         <v>-290.79000000000002</v>
@@ -2967,19 +2941,19 @@
       <c r="I36">
         <v>-826.23</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-95.960700000000017</v>
       </c>
       <c r="L36">
         <v>0.5</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-90.885300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -3018,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -3057,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -3096,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -3135,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>19</v>
@@ -3174,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>36</v>
@@ -3213,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>116</v>
       </c>
@@ -3222,18 +3196,18 @@
       <c r="D43" s="10"/>
       <c r="G43">
         <f>SUM(G33:G42)</f>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J43">
         <f>IF(G43=0,0,SUM(J33:J42)/G43)</f>
-        <v>-244.53791519434631</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="K43">
         <f>J43+'M2 mix'!L85</f>
-        <v>-248.21202642585126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-248.2205193279766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>126</v>
       </c>
@@ -3273,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>16</v>
@@ -3311,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>17</v>
@@ -3349,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>18</v>
@@ -3387,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -3426,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>4</v>
@@ -3465,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -3504,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -3543,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>19</v>
@@ -3582,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>36</v>
@@ -3621,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>116</v>
       </c>
@@ -3641,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>16</v>
@@ -3719,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>17</v>
@@ -3757,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>18</v>
@@ -3795,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -3834,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>4</v>
@@ -3873,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -3912,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>9</v>
@@ -3951,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -3990,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
@@ -4029,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -4045,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -4056,7 +4030,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="10">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -4067,7 +4041,7 @@
       </c>
       <c r="G66">
         <f>IF(D66,F66*D66,0)</f>
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="H66">
         <v>-285.33</v>
@@ -4077,17 +4051,17 @@
       </c>
       <c r="J66">
         <f>IF(D66,H66*G66,"")</f>
-        <v>-1141.32</v>
+        <v>-382.34219999999999</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
         <f>IF(D66,L66*D66*I66,0)</f>
-        <v>-1821.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-610.1690000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>35</v>
@@ -4095,7 +4069,9 @@
       <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="10">
+        <v>0.33</v>
+      </c>
       <c r="E67">
         <v>3</v>
       </c>
@@ -4105,7 +4081,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G68" si="15">IF(D67,F67*D67,0)</f>
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="H67">
         <v>-260.45</v>
@@ -4113,19 +4089,19 @@
       <c r="I67">
         <v>-1675.7</v>
       </c>
-      <c r="J67" t="str">
+      <c r="J67">
         <f t="shared" ref="J67:J68" si="16">IF(D67,H67*G67,"")</f>
-        <v/>
+        <v>-128.92274999999998</v>
       </c>
       <c r="L67">
         <v>0.5</v>
       </c>
       <c r="M67">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-276.4905</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>38</v>
@@ -4159,11 +4135,11 @@
         <v>0.5</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M76" si="17">IF(D68,L68*D68*I68,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M68:M72" si="17">IF(D68,L68*D68*I68,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>116</v>
       </c>
@@ -4172,14 +4148,14 @@
       <c r="D69" s="10"/>
       <c r="G69">
         <f>SUM(G66:G68)</f>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="J69">
         <f>IF(G69=0,0,SUM(J66:J68)/G69)</f>
-        <v>-285.33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-278.61850136239781</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -4190,7 +4166,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="10">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -4201,7 +4177,7 @@
       </c>
       <c r="G70">
         <f>IF(D70,F70*D70,0)</f>
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="H70">
         <v>-285.33</v>
@@ -4211,17 +4187,17 @@
       </c>
       <c r="J70">
         <f>IF(D70,H70*G70,"")</f>
-        <v>-1141.32</v>
+        <v>-382.34219999999999</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70">
         <f t="shared" si="17"/>
-        <v>-1821.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-610.1690000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>35</v>
@@ -4229,7 +4205,9 @@
       <c r="C71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>0.33</v>
+      </c>
       <c r="E71">
         <v>3</v>
       </c>
@@ -4239,7 +4217,7 @@
       </c>
       <c r="G71">
         <f t="shared" ref="G71:G72" si="18">IF(D71,F71*D71,0)</f>
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="H71">
         <v>-260.45</v>
@@ -4247,19 +4225,19 @@
       <c r="I71">
         <v>-1675.7</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71">
         <f t="shared" ref="J71:J72" si="19">IF(D71,H71*G71,"")</f>
-        <v/>
+        <v>-128.92274999999998</v>
       </c>
       <c r="L71">
         <v>0.5</v>
       </c>
       <c r="M71">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-276.4905</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>38</v>
@@ -4297,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
@@ -4306,17 +4284,17 @@
       <c r="D73" s="10"/>
       <c r="G73">
         <f>SUM(G70:G72)</f>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="J73">
         <f>IF(G73=0,0,SUM(J70:J72)/G73)</f>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="O73" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>27</v>
       </c>
@@ -4327,7 +4305,7 @@
         <v>75</v>
       </c>
       <c r="D74" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4338,7 +4316,7 @@
       </c>
       <c r="G74">
         <f>IF(D74,F74*D74,0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H74">
         <v>-249.58</v>
@@ -4348,21 +4326,21 @@
       </c>
       <c r="J74">
         <f>IF(D74,H74*G74,"")</f>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="L74">
         <v>0.5</v>
       </c>
       <c r="M74">
         <f>IF(D74,L74*D74*I74,0)</f>
-        <v>-285.83</v>
+        <v>-142.91499999999999</v>
       </c>
       <c r="O74">
         <f>G74*(I74-H74)</f>
-        <v>-36.249999999999972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-18.124999999999986</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>26</v>
@@ -4370,7 +4348,9 @@
       <c r="C75" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
       <c r="E75">
         <v>1</v>
       </c>
@@ -4396,15 +4376,15 @@
         <v>0.5</v>
       </c>
       <c r="M75">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="M75:M76" si="21">IF(D75,L75*D75*I75,0)</f>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75:O76" si="21">G75*(I75-H75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O75:O76" si="22">G75*(I75-H75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>28</v>
@@ -4412,7 +4392,9 @@
       <c r="C76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="10">
+        <v>3</v>
+      </c>
       <c r="E76">
         <v>1</v>
       </c>
@@ -4422,7 +4404,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H76">
         <v>-287.2</v>
@@ -4432,48 +4414,48 @@
       </c>
       <c r="J76">
         <f>IF(D76,H76*G76,0)</f>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="L76">
         <v>0.5</v>
       </c>
       <c r="M76">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-428.745</v>
       </c>
       <c r="O76">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="22"/>
+        <v>2.0550000000000068</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G77">
         <f>SUM(G74:G76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <f>IF(G77=0,0,SUM(J74:J76)/G77)</f>
-        <v>-249.58</v>
+        <v>-277.79499999999996</v>
       </c>
       <c r="M77">
         <f>SUM(M3:M76)</f>
-        <v>-5585.7438999999995</v>
+        <v>-3394.3710499999997</v>
       </c>
       <c r="O77">
         <f>SUM(O74:O76)</f>
-        <v>-36.249999999999972</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-16.069999999999979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G78">
         <f>G21+G32+G43+G54+G65+G69+G73+G77</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4504,148 +4486,148 @@
   <sheetPr published="0"/>
   <dimension ref="A2:L84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2">
         <f>input!K21</f>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>B2</f>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:J2" si="0">C2</f>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>J2</f>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3">
         <f>input!J32</f>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:K3" si="1">B3</f>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-242.82459459459457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4">
         <f>input!$K43</f>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:K4" si="2">B4</f>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>-248.21202642585126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-248.2205193279766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -4690,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4735,142 +4717,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
       <c r="B7">
         <f>input!J69</f>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:K7" si="5">B7</f>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="E7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>-285.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-278.61850136239781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
       <c r="B8">
         <f>input!J73</f>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:K8" si="6">B8</f>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="D8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="E8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>-285.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-278.61850136239781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
       <c r="B9">
         <f>input!J74</f>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:K9" si="7">B9</f>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="D9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="E9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="F9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="G9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="H9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>-249.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-124.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -4915,52 +4897,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11">
         <f>input!J76</f>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:K11" si="9">B11</f>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="D11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="E11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="F11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="G11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="H11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="I11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="J11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-430.79999999999995</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>93</v>
       </c>
@@ -4992,16 +4974,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="array" ref="B14:K23">TRANSPOSE(B2:K11)</f>
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D14">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5010,30 +4992,30 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H14">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I14">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D15">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5042,30 +5024,30 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H15">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I15">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D16">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5074,30 +5056,30 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H16">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I16">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D17">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5106,30 +5088,30 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H17">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I17">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D18">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5138,30 +5120,30 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H18">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I18">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D19">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5170,30 +5152,30 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H19">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I19">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D20">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5202,30 +5184,30 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H20">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I20">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D21">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5234,30 +5216,30 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H21">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I21">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D22">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5266,30 +5248,30 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H22">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I22">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-242.82459459459457</v>
       </c>
       <c r="D23">
-        <v>-248.21202642585126</v>
+        <v>-248.2205193279766</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5298,22 +5280,22 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="H23">
-        <v>-285.33</v>
+        <v>-278.61850136239781</v>
       </c>
       <c r="I23">
-        <v>-249.58</v>
+        <v>-124.79</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-430.79999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -5345,7 +5327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -5367,11 +5349,11 @@
       </c>
       <c r="G26">
         <f t="shared" ref="G26:H28" si="10">ABS(G14-G2)</f>
-        <v>738.32999999999993</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="H26">
         <f t="shared" si="10"/>
-        <v>738.32999999999993</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5383,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -5396,7 +5378,7 @@
       </c>
       <c r="D27">
         <f>ABS(D15-D3)</f>
-        <v>248.21202642585126</v>
+        <v>5.3959247333820315</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5406,25 +5388,25 @@
       </c>
       <c r="G27">
         <f t="shared" si="10"/>
-        <v>285.33</v>
+        <v>35.793906767803236</v>
       </c>
       <c r="H27">
         <f t="shared" si="10"/>
-        <v>285.33</v>
+        <v>35.793906767803236</v>
       </c>
       <c r="I27">
         <f>ABS(I15-I3)</f>
-        <v>249.58</v>
+        <v>118.03459459459457</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
         <f>ABS(K3-K15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>187.97540540540538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -5433,7 +5415,7 @@
       </c>
       <c r="C28">
         <f>ABS(C16-C4)</f>
-        <v>248.21202642585126</v>
+        <v>5.3959247333820315</v>
       </c>
       <c r="D28">
         <f>ABS(D16-D4)</f>
@@ -5447,25 +5429,25 @@
       </c>
       <c r="G28">
         <f t="shared" si="10"/>
-        <v>37.117973574148721</v>
+        <v>30.397982034421204</v>
       </c>
       <c r="H28">
         <f t="shared" si="10"/>
-        <v>37.117973574148721</v>
+        <v>30.397982034421204</v>
       </c>
       <c r="I28">
         <f>ABS(I16-I4)</f>
-        <v>1.3679735741487491</v>
+        <v>123.4305193279766</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
         <f>ABS(K4-K16)</f>
-        <v>248.21202642585126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>182.57948067202335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -5474,7 +5456,7 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:C35" si="11">ABS(C17-C5)</f>
-        <v>0</v>
+        <v>242.82459459459457</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5502,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -5511,7 +5493,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>242.82459459459457</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5540,21 +5522,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
       <c r="B31">
         <f>ABS(B19-B7)</f>
-        <v>738.32999999999993</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="C31">
         <f t="shared" si="11"/>
-        <v>285.33</v>
+        <v>35.793906767803236</v>
       </c>
       <c r="D31">
         <f>ABS(D19-D7)</f>
-        <v>37.117973574148721</v>
+        <v>30.397982034421204</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5574,28 +5556,28 @@
       </c>
       <c r="J31">
         <f t="shared" si="12"/>
-        <v>285.33</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="K31">
         <f>ABS(K7-K19)</f>
-        <v>285.33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>152.18149863760215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
       <c r="B32">
         <f>ABS(B20-B8)</f>
-        <v>738.32999999999993</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="C32">
         <f t="shared" si="11"/>
-        <v>285.33</v>
+        <v>35.793906767803236</v>
       </c>
       <c r="D32">
         <f>ABS(D20-D8)</f>
-        <v>37.117973574148721</v>
+        <v>30.397982034421204</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5615,14 +5597,14 @@
       </c>
       <c r="J32">
         <f t="shared" si="12"/>
-        <v>285.33</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="K32">
         <f>ABS(K8-K20)</f>
-        <v>285.33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>152.18149863760215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -5631,11 +5613,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="11"/>
-        <v>249.58</v>
+        <v>118.03459459459457</v>
       </c>
       <c r="D33">
         <f>ABS(D21-D9)</f>
-        <v>1.3679735741487491</v>
+        <v>123.4305193279766</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5659,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -5668,7 +5650,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>242.82459459459457</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5683,11 +5665,11 @@
       </c>
       <c r="G34">
         <f>ABS(G22-G10)</f>
-        <v>285.33</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="H34">
         <f>ABS(H22-H10)</f>
-        <v>285.33</v>
+        <v>278.61850136239781</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5699,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5708,11 +5690,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>187.97540540540538</v>
       </c>
       <c r="D35">
         <f>ABS(D23-D11)</f>
-        <v>248.21202642585126</v>
+        <v>182.57948067202335</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5722,11 +5704,11 @@
       </c>
       <c r="G35">
         <f>ABS(G23-G11)</f>
-        <v>285.33</v>
+        <v>152.18149863760215</v>
       </c>
       <c r="H35">
         <f>ABS(H23-H11)</f>
-        <v>285.33</v>
+        <v>152.18149863760215</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5738,142 +5720,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
       <c r="B38">
         <f>input!G21</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f>B38</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f>C38</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f t="shared" ref="E38:K38" si="13">D38</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f t="shared" si="13"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <f t="shared" si="13"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f t="shared" si="13"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f t="shared" si="13"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <f t="shared" si="13"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f t="shared" si="13"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
       <c r="B39">
         <f>input!G32</f>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:K47" si="14">B39</f>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J39">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K39">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
       <c r="B40">
         <f>input!G43</f>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K40">
         <f t="shared" si="14"/>
-        <v>2.8299999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -5918,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -5963,142 +5945,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
       <c r="B43">
         <f>input!G69</f>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="C43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="D43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="E43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="F43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="G43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="J43">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="K43">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
       <c r="B44">
         <f>input!G73</f>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="C44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="D44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="E44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="F44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="G44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="J44">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="K44">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
       <c r="B45">
         <f>input!G74</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J45">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K45">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -6143,52 +6125,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
       <c r="B47">
         <f>input!G76</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J47">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K47">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>93</v>
       </c>
@@ -6220,16 +6202,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="array" ref="B50:K59">TRANSPOSE(B38:K47)</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D50">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6238,30 +6220,30 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D51">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6270,30 +6252,30 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D52">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6302,30 +6284,30 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D53">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -6334,30 +6316,30 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D54">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6366,30 +6348,30 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D55">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6398,30 +6380,30 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D56">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6430,30 +6412,30 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D57">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6462,30 +6444,30 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D58">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6494,30 +6476,30 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D59">
-        <v>2.8299999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6526,22 +6508,22 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1.835</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>93</v>
       </c>
@@ -6573,13 +6555,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
       <c r="B62">
         <f>B38*B50</f>
-        <v>2.8900000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:K62" si="15">C38*C50</f>
@@ -6587,7 +6569,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="15"/>
-        <v>0.48109999999999997</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" si="15"/>
@@ -6599,15 +6581,15 @@
       </c>
       <c r="G62">
         <f t="shared" si="15"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <f t="shared" si="15"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" si="15"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <f t="shared" si="15"/>
@@ -6618,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -6628,11 +6610,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.2321000000000002</v>
       </c>
       <c r="D63">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.4642000000000004</v>
       </c>
       <c r="E63">
         <f t="shared" si="16"/>
@@ -6644,15 +6626,15 @@
       </c>
       <c r="G63">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.0368500000000003</v>
       </c>
       <c r="H63">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.0368500000000003</v>
       </c>
       <c r="I63">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="J63">
         <f t="shared" si="16"/>
@@ -6660,24 +6642,24 @@
       </c>
       <c r="K63">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>79</v>
       </c>
       <c r="B64">
         <f t="shared" ref="B64:K64" si="17">B40*B52</f>
-        <v>0.48109999999999997</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.4642000000000004</v>
       </c>
       <c r="D64">
         <f t="shared" si="17"/>
-        <v>8.008899999999997</v>
+        <v>4.9284000000000008</v>
       </c>
       <c r="E64">
         <f t="shared" si="17"/>
@@ -6689,15 +6671,15 @@
       </c>
       <c r="G64">
         <f t="shared" si="17"/>
-        <v>11.319999999999999</v>
+        <v>4.0737000000000005</v>
       </c>
       <c r="H64">
         <f t="shared" si="17"/>
-        <v>11.319999999999999</v>
+        <v>4.0737000000000005</v>
       </c>
       <c r="I64">
         <f t="shared" si="17"/>
-        <v>2.8299999999999996</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J64">
         <f t="shared" si="17"/>
@@ -6705,10 +6687,10 @@
       </c>
       <c r="K64">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -6753,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -6798,21 +6780,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:K67" si="20">B43*B55</f>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.0368500000000003</v>
       </c>
       <c r="D67">
         <f t="shared" si="20"/>
-        <v>11.319999999999999</v>
+        <v>4.0737000000000005</v>
       </c>
       <c r="E67">
         <f t="shared" si="20"/>
@@ -6824,15 +6806,15 @@
       </c>
       <c r="G67">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>3.3672249999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>3.3672249999999999</v>
       </c>
       <c r="I67">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="J67">
         <f t="shared" si="20"/>
@@ -6840,24 +6822,24 @@
       </c>
       <c r="K67">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.7524999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:K68" si="21">B44*B56</f>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.0368500000000003</v>
       </c>
       <c r="D68">
         <f t="shared" si="21"/>
-        <v>11.319999999999999</v>
+        <v>4.0737000000000005</v>
       </c>
       <c r="E68">
         <f t="shared" si="21"/>
@@ -6869,15 +6851,15 @@
       </c>
       <c r="G68">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>3.3672249999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>3.3672249999999999</v>
       </c>
       <c r="I68">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="J68">
         <f t="shared" si="21"/>
@@ -6885,24 +6867,24 @@
       </c>
       <c r="K68">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.7524999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
       <c r="B69">
         <f t="shared" ref="B69:K69" si="22">B45*B57</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="D69">
         <f t="shared" si="22"/>
-        <v>2.8299999999999996</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E69">
         <f t="shared" si="22"/>
@@ -6914,15 +6896,15 @@
       </c>
       <c r="G69">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="H69">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="I69">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J69">
         <f t="shared" si="22"/>
@@ -6930,10 +6912,10 @@
       </c>
       <c r="K69">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -6978,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -6988,11 +6970,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.665</v>
       </c>
       <c r="D71">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="E71">
         <f t="shared" si="24"/>
@@ -7004,15 +6986,15 @@
       </c>
       <c r="G71">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2.7524999999999999</v>
       </c>
       <c r="H71">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2.7524999999999999</v>
       </c>
       <c r="I71">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J71">
         <f t="shared" si="24"/>
@@ -7020,10 +7002,10 @@
       </c>
       <c r="K71">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>93</v>
       </c>
@@ -7055,7 +7037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -7081,11 +7063,11 @@
       </c>
       <c r="G74">
         <f t="shared" si="25"/>
-        <v>502.06439999999998</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <f t="shared" si="25"/>
-        <v>502.06439999999998</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <f t="shared" si="25"/>
@@ -7101,10 +7083,10 @@
       </c>
       <c r="L74">
         <f>SUM(B74:K74)</f>
-        <v>1004.1288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -7118,7 +7100,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>13.296637728000004</v>
       </c>
       <c r="E75">
         <f t="shared" si="26"/>
@@ -7130,15 +7112,15 @@
       </c>
       <c r="G75">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72.906819000000027</v>
       </c>
       <c r="H75">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72.906819000000027</v>
       </c>
       <c r="I75">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>65.509199999999993</v>
       </c>
       <c r="J75">
         <f t="shared" si="26"/>
@@ -7146,14 +7128,14 @@
       </c>
       <c r="K75">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>312.97904999999997</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L83" si="27">SUM(B75:K75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>537.59852572800003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -7163,7 +7145,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>13.296637728000004</v>
       </c>
       <c r="D76">
         <f t="shared" si="26"/>
@@ -7179,15 +7161,15 @@
       </c>
       <c r="G76">
         <f t="shared" si="26"/>
-        <v>420.17546085936345</v>
+        <v>123.83225941362167</v>
       </c>
       <c r="H76">
         <f t="shared" si="26"/>
-        <v>420.17546085936345</v>
+        <v>123.83225941362167</v>
       </c>
       <c r="I76">
         <f t="shared" si="26"/>
-        <v>3.8713652148409596</v>
+        <v>137.00787645405404</v>
       </c>
       <c r="J76">
         <f t="shared" si="26"/>
@@ -7195,14 +7177,14 @@
       </c>
       <c r="K76">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>607.98967063783778</v>
       </c>
       <c r="L76">
         <f t="shared" si="27"/>
-        <v>844.22228693356783</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1005.9587036471352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -7251,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -7300,21 +7282,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79">
         <f t="shared" si="26"/>
-        <v>502.06439999999998</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72.906819000000027</v>
       </c>
       <c r="D79">
         <f t="shared" si="26"/>
-        <v>420.17546085936345</v>
+        <v>123.83225941362167</v>
       </c>
       <c r="E79">
         <f t="shared" si="26"/>
@@ -7342,28 +7324,28 @@
       </c>
       <c r="K79">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>418.87957499999987</v>
       </c>
       <c r="L79">
         <f t="shared" si="27"/>
-        <v>922.23986085936349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>615.61865341362159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80">
         <f t="shared" si="26"/>
-        <v>502.06439999999998</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>72.906819000000027</v>
       </c>
       <c r="D80">
         <f t="shared" si="26"/>
-        <v>420.17546085936345</v>
+        <v>123.83225941362167</v>
       </c>
       <c r="E80">
         <f t="shared" si="26"/>
@@ -7391,14 +7373,14 @@
       </c>
       <c r="K80">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>418.87957499999987</v>
       </c>
       <c r="L80">
         <f t="shared" si="27"/>
-        <v>922.23986085936349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>615.61865341362159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -7408,11 +7390,11 @@
       </c>
       <c r="C81">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>65.509199999999993</v>
       </c>
       <c r="D81">
         <f t="shared" si="26"/>
-        <v>3.8713652148409596</v>
+        <v>137.00787645405404</v>
       </c>
       <c r="E81">
         <f t="shared" si="26"/>
@@ -7444,10 +7426,10 @@
       </c>
       <c r="L81">
         <f t="shared" si="27"/>
-        <v>3.8713652148409596</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>202.51707645405403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -7496,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -7506,11 +7488,11 @@
       </c>
       <c r="C83">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>312.97904999999997</v>
       </c>
       <c r="D83">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>607.98967063783778</v>
       </c>
       <c r="E83">
         <f t="shared" si="26"/>
@@ -7522,11 +7504,11 @@
       </c>
       <c r="G83">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>418.87957499999987</v>
       </c>
       <c r="H83">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>418.87957499999987</v>
       </c>
       <c r="I83">
         <f t="shared" si="26"/>
@@ -7542,13 +7524,13 @@
       </c>
       <c r="L83">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1758.7278706378377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L84">
-        <f>-SUM(L74:L83)/(2*12)</f>
-        <v>-154.02925724446399</v>
+        <f>-SUM(L74:L83)/(2*input!G78)</f>
+        <v>-263.11330462745946</v>
       </c>
     </row>
   </sheetData>
@@ -7565,17 +7547,17 @@
       <selection activeCell="T142" sqref="T142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -7634,7 +7616,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7693,7 +7675,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -7752,7 +7734,7 @@
         <v>-71.22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -7811,7 +7793,7 @@
         <v>544.22</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -7870,7 +7852,7 @@
         <v>70.569999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -7929,7 +7911,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -7988,7 +7970,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -8047,7 +8029,7 @@
         <v>-189.17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -8106,7 +8088,7 @@
         <v>-256.22000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -8165,7 +8147,7 @@
         <v>-208.92</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -8224,7 +8206,7 @@
         <v>-215.73</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -8283,7 +8265,7 @@
         <v>-212.38</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -8342,7 +8324,7 @@
         <v>-222.87</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -8401,7 +8383,7 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -8460,7 +8442,7 @@
         <v>-232.84</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -8519,7 +8501,7 @@
         <v>522.89</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -8578,7 +8560,7 @@
         <v>-147.25</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -8637,7 +8619,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -8694,7 +8676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>453</v>
@@ -8751,7 +8733,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>453</v>
@@ -8808,7 +8790,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>453</v>
@@ -8865,7 +8847,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>453</v>
@@ -8922,7 +8904,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>453</v>
@@ -8979,7 +8961,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>453</v>
@@ -9036,7 +9018,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>453</v>
@@ -9093,7 +9075,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>453</v>
@@ -9150,7 +9132,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>453</v>
@@ -9207,7 +9189,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>453</v>
@@ -9264,7 +9246,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>453</v>
@@ -9321,7 +9303,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>453</v>
@@ -9378,7 +9360,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>453</v>
@@ -9435,7 +9417,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>453</v>
@@ -9492,7 +9474,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>453</v>
@@ -9549,7 +9531,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>453</v>
@@ -9606,7 +9588,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>453</v>
@@ -9663,7 +9645,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>453</v>
@@ -9720,7 +9702,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -9777,7 +9759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -9854,7 +9836,7 @@
         <v>281.14999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -9931,7 +9913,7 @@
         <v>88.15</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -10008,7 +9990,7 @@
         <v>243.07</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -10085,7 +10067,7 @@
         <v>372.37</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -10162,7 +10144,7 @@
         <v>101.28</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -10239,7 +10221,7 @@
         <v>156.5</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -10316,7 +10298,7 @@
         <v>157.60999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -10393,7 +10375,7 @@
         <v>361.02</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -10470,7 +10452,7 @@
         <v>428.07000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -10547,7 +10529,7 @@
         <v>380.77</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -10624,7 +10606,7 @@
         <v>387.58</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -10701,7 +10683,7 @@
         <v>384.23</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -10778,7 +10760,7 @@
         <v>394.72</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -10855,7 +10837,7 @@
         <v>481.85</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
@@ -10932,7 +10914,7 @@
         <v>404.69</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -11009,7 +10991,7 @@
         <v>351.03999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -11086,7 +11068,7 @@
         <v>319.10000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -11163,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -11184,89 +11166,89 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="1">
         <f>input!G3</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <f>$B62</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <f>$B62</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" ref="E62:S77" si="18">$B62</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1">
         <f t="shared" si="18"/>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -11343,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -11420,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
@@ -11497,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -11574,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -11651,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -11728,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -11805,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -11882,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -11959,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -12036,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -12113,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -12190,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -12267,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -12344,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -12421,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
@@ -12498,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -12575,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>39</v>
       </c>
@@ -12631,10 +12613,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <f t="array" ref="B82:S99">TRANSPOSE((B62:S79))</f>
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -12688,9 +12670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -12744,9 +12726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -12800,9 +12782,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -12856,9 +12838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
@@ -12912,9 +12894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -12968,9 +12950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -13024,9 +13006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -13080,9 +13062,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -13136,9 +13118,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
@@ -13192,9 +13174,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -13248,9 +13230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -13304,9 +13286,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
@@ -13360,9 +13342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C95" s="4">
         <v>0</v>
@@ -13416,9 +13398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -13472,9 +13454,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C97" s="4">
         <v>0</v>
@@ -13528,9 +13510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C98" s="4">
         <v>0</v>
@@ -13584,9 +13566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
@@ -13640,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>39</v>
       </c>
@@ -13696,13 +13678,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B102" s="4">
         <f t="shared" ref="B102:S102" si="21">B62*B82</f>
-        <v>2.8900000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="C102" s="4">
         <f t="shared" si="21"/>
@@ -13773,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -13850,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>34</v>
       </c>
@@ -13927,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>33</v>
       </c>
@@ -14004,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -14081,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -14158,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -14235,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
@@ -14312,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -14389,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -14466,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -14543,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -14620,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -14697,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -14774,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -14851,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -14928,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -15005,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -15082,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>39</v>
       </c>
@@ -15138,7 +15120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>39</v>
       </c>
@@ -15219,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -15300,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>34</v>
       </c>
@@ -15381,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>33</v>
       </c>
@@ -15462,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -15543,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
@@ -15624,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -15705,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -15786,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -15867,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -15948,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -16029,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -16110,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -16191,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -16272,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -16353,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -16434,7 +16416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -16515,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
@@ -16596,13 +16578,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T140" s="4">
         <f>SUM(T122:T139)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S141" s="4" t="s">
         <v>118</v>
       </c>
@@ -16626,14 +16608,14 @@
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -16668,7 +16650,7 @@
         <v>-191.72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -16703,7 +16685,7 @@
         <v>-230.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -16738,7 +16720,7 @@
         <v>-251.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -16773,7 +16755,7 @@
         <v>-290.79000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -16808,7 +16790,7 @@
         <v>-108.79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -16843,7 +16825,7 @@
         <v>-218.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -16878,7 +16860,7 @@
         <v>-208.92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -16913,7 +16895,7 @@
         <v>-242.78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -16948,7 +16930,7 @@
         <v>-243.61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -16983,7 +16965,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -17015,7 +16997,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14">
         <f t="array" ref="B14:K23">TRANSPOSE(B2:K11)</f>
         <v>-191.72</v>
@@ -17048,7 +17030,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>-191.72</v>
       </c>
@@ -17080,7 +17062,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>-191.72</v>
       </c>
@@ -17112,7 +17094,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>-191.72</v>
       </c>
@@ -17144,7 +17126,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>-191.72</v>
       </c>
@@ -17176,7 +17158,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>-191.72</v>
       </c>
@@ -17208,7 +17190,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>-191.72</v>
       </c>
@@ -17240,7 +17222,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>-191.72</v>
       </c>
@@ -17272,7 +17254,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>-191.72</v>
       </c>
@@ -17304,7 +17286,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>-191.72</v>
       </c>
@@ -17336,7 +17318,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -17368,7 +17350,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -17413,7 +17395,7 @@
         <v>99.330000000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -17458,7 +17440,7 @@
         <v>60.260000000000019</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -17503,7 +17485,7 @@
         <v>39.300000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -17548,7 +17530,7 @@
         <v>0.25999999999999091</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -17593,7 +17575,7 @@
         <v>182.26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -17638,7 +17620,7 @@
         <v>72.110000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -17683,7 +17665,7 @@
         <v>82.130000000000024</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -17728,7 +17710,7 @@
         <v>48.27000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -17773,7 +17755,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -17818,12 +17800,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -17868,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -17913,7 +17895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -17958,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -18003,7 +17985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -18048,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -18093,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -18138,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -18183,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>113</v>
       </c>
@@ -18228,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -18273,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -18305,7 +18287,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B50">
         <f t="array" ref="B50:K59">TRANSPOSE(B38:K47)</f>
         <v>0</v>
@@ -18338,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0</v>
       </c>
@@ -18370,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
@@ -18402,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0</v>
       </c>
@@ -18434,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0</v>
       </c>
@@ -18466,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>0</v>
       </c>
@@ -18498,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0</v>
       </c>
@@ -18530,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0</v>
       </c>
@@ -18562,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0</v>
       </c>
@@ -18594,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0</v>
       </c>
@@ -18626,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>46</v>
       </c>
@@ -18658,7 +18640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -18703,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -18748,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -18793,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -18838,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -18883,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -18928,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -18973,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -19018,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -19063,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -19108,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>46</v>
       </c>
@@ -19140,7 +19122,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -19189,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -19238,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -19287,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -19336,7 +19318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -19385,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -19434,7 +19416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -19483,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>112</v>
       </c>
@@ -19532,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -19581,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -19630,13 +19612,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L84">
         <f>SUM(L74:L83)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K85" t="s">
         <v>120</v>
       </c>
@@ -19659,14 +19641,14 @@
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -19701,7 +19683,7 @@
         <v>-191.72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -19736,7 +19718,7 @@
         <v>-230.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -19771,7 +19753,7 @@
         <v>-251.75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -19806,7 +19788,7 @@
         <v>-290.79000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -19841,7 +19823,7 @@
         <v>-108.79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -19876,7 +19858,7 @@
         <v>-218.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -19911,7 +19893,7 @@
         <v>-208.92</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -19946,7 +19928,7 @@
         <v>-242.78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -19981,7 +19963,7 @@
         <v>-243.61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -20016,7 +19998,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -20048,7 +20030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="array" ref="B14:K23">TRANSPOSE(B2:K11)</f>
         <v>-191.72</v>
@@ -20081,7 +20063,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>-191.72</v>
       </c>
@@ -20113,7 +20095,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>-191.72</v>
       </c>
@@ -20145,7 +20127,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>-191.72</v>
       </c>
@@ -20177,7 +20159,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>-191.72</v>
       </c>
@@ -20209,7 +20191,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>-191.72</v>
       </c>
@@ -20241,7 +20223,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>-191.72</v>
       </c>
@@ -20273,7 +20255,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>-191.72</v>
       </c>
@@ -20305,7 +20287,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>-191.72</v>
       </c>
@@ -20337,7 +20319,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>-191.72</v>
       </c>
@@ -20369,7 +20351,7 @@
         <v>-291.05</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
@@ -20401,7 +20383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -20446,7 +20428,7 @@
         <v>99.330000000000013</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -20491,7 +20473,7 @@
         <v>60.260000000000019</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -20536,7 +20518,7 @@
         <v>39.300000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -20581,7 +20563,7 @@
         <v>0.25999999999999091</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -20626,7 +20608,7 @@
         <v>182.26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -20671,7 +20653,7 @@
         <v>72.110000000000014</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -20716,7 +20698,7 @@
         <v>82.130000000000024</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -20761,7 +20743,7 @@
         <v>48.27000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -20806,7 +20788,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -20851,192 +20833,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <f>input!$G33</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f>input!$G33</f>
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="C39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="E39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="F39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="G39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="H39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="I39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="J39">
         <f>input!$G34</f>
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="K39">
         <f>input!$G34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="C40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="D40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="F40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="H40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="I40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="J40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="K40">
         <f>input!$G35</f>
-        <v>2.4899999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="I41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J41">
         <f>input!$G36</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="K41">
         <f>input!$G36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -21081,7 +21063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -21126,7 +21108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -21171,7 +21153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -21216,7 +21198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -21261,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>36</v>
       </c>
@@ -21306,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
@@ -21338,19 +21320,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="array" ref="B50:K59">TRANSPOSE(B38:K47)</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D50">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -21371,18 +21353,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D51">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -21403,18 +21385,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D52">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -21435,18 +21417,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D53">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -21467,18 +21449,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D54">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -21499,18 +21481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D55">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -21531,18 +21513,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D56">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -21563,18 +21545,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D57">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -21595,18 +21577,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D58">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -21627,18 +21609,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="D59">
-        <v>2.4899999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -21659,7 +21641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
@@ -21691,13 +21673,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B62">
         <f>B38*B50</f>
-        <v>0.11560000000000002</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <f>C38*C50</f>
@@ -21705,7 +21687,7 @@
       </c>
       <c r="D62">
         <f t="shared" ref="D62:K62" si="10">D38*D50</f>
-        <v>0.84660000000000002</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" si="10"/>
@@ -21736,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -21746,15 +21728,15 @@
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.4336000000000002</v>
       </c>
       <c r="D63">
         <f t="shared" ref="D63:K63" si="12">D39*D51</f>
-        <v>0</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="E63">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="F63">
         <f t="shared" si="12"/>
@@ -21781,25 +21763,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B64">
         <f t="shared" si="11"/>
-        <v>0.84660000000000002</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="D64">
         <f t="shared" ref="D64:K64" si="13">D40*D52</f>
-        <v>6.2000999999999991</v>
+        <v>0.10890000000000001</v>
       </c>
       <c r="E64">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.10890000000000001</v>
       </c>
       <c r="F64">
         <f t="shared" si="13"/>
@@ -21826,7 +21808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -21836,15 +21818,15 @@
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="D65">
         <f t="shared" ref="D65:K65" si="14">D41*D53</f>
-        <v>0</v>
+        <v>0.10890000000000001</v>
       </c>
       <c r="E65">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.10890000000000001</v>
       </c>
       <c r="F65">
         <f t="shared" si="14"/>
@@ -21871,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -21916,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -21961,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -22006,7 +21988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -22051,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>19</v>
       </c>
@@ -22096,7 +22078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
@@ -22141,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>13</v>
       </c>
@@ -22173,7 +22155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
@@ -22187,7 +22169,7 @@
       </c>
       <c r="D74">
         <f>D62*D26</f>
-        <v>50.821398000000002</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <f t="shared" si="21"/>
@@ -22219,10 +22201,10 @@
       </c>
       <c r="L74">
         <f>SUM(B74:K74)</f>
-        <v>50.821398000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -22236,11 +22218,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10.790208000000005</v>
       </c>
       <c r="E75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.888000000000016</v>
       </c>
       <c r="F75">
         <f t="shared" si="22"/>
@@ -22268,20 +22250,20 @@
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L83" si="23">SUM(B75:K75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>41.678208000000019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B76">
         <f t="shared" si="22"/>
-        <v>50.821398000000002</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10.790208000000005</v>
       </c>
       <c r="D76">
         <f t="shared" si="22"/>
@@ -22289,7 +22271,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.2514560000000028</v>
       </c>
       <c r="F76">
         <f t="shared" si="22"/>
@@ -22317,10 +22299,10 @@
       </c>
       <c r="L76">
         <f t="shared" si="23"/>
-        <v>50.821398000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>15.041664000000008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
@@ -22330,11 +22312,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.888000000000016</v>
       </c>
       <c r="D77">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.2514560000000028</v>
       </c>
       <c r="E77">
         <f t="shared" si="22"/>
@@ -22366,10 +22348,10 @@
       </c>
       <c r="L77">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>35.139456000000017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -22418,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -22467,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -22516,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -22565,7 +22547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>19</v>
       </c>
@@ -22614,7 +22596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>36</v>
       </c>
@@ -22663,19 +22645,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L84">
         <f>SUM(L74:L83)/2</f>
-        <v>50.821398000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>45.929664000000017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K85" t="s">
         <v>119</v>
       </c>
       <c r="L85">
         <f>IF(input!G43=0,0,-0.579*L84/((input!G43)^2))</f>
-        <v>-3.674111231504952</v>
+        <v>-5.3959247333820315</v>
       </c>
     </row>
   </sheetData>
@@ -22692,12 +22674,12 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -22705,7 +22687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -22713,7 +22695,7 @@
         <v>-414.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -22721,7 +22703,7 @@
         <v>-363.17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -22729,7 +22711,7 @@
         <v>-634.91999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -22737,7 +22719,7 @@
         <v>-601.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -22745,7 +22727,7 @@
         <v>-272.04000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -22753,7 +22735,7 @@
         <v>-826.23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -22761,7 +22743,7 @@
         <v>-1675.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -22769,7 +22751,7 @@
         <v>-910.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -22777,7 +22759,7 @@
         <v>-285.83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -22788,7 +22770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -22799,7 +22781,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -22810,7 +22792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -22821,7 +22803,7 @@
         <v>-92.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -22832,7 +22814,7 @@
         <v>-134.6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -22843,7 +22825,7 @@
         <v>-181.58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -22854,7 +22836,7 @@
         <v>-242.43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -22865,7 +22847,7 @@
         <v>-199.63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -22873,7 +22855,7 @@
         <v>-205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -22904,20 +22886,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -22928,7 +22910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -22939,7 +22921,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -22950,7 +22932,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -22961,14 +22943,14 @@
         <v>-71.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>87</v>
@@ -22977,7 +22959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -22988,7 +22970,7 @@
         <v>-191.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -22999,7 +22981,7 @@
         <v>-230.79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -23010,7 +22992,7 @@
         <v>-251.75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -23021,14 +23003,14 @@
         <v>-290.79000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>87</v>
@@ -23037,7 +23019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -23048,7 +23030,7 @@
         <v>-285.33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -23059,7 +23041,7 @@
         <v>-260.45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -23070,14 +23052,14 @@
         <v>-310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>87</v>
@@ -23086,7 +23068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -23097,7 +23079,7 @@
         <v>-88.98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -23108,7 +23090,7 @@
         <v>-216.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -23119,7 +23101,7 @@
         <v>-229.05</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -23130,12 +23112,12 @@
         <v>-288.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -23144,7 +23126,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -23153,14 +23135,14 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -23169,14 +23151,14 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -23185,19 +23167,19 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -23206,7 +23188,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -23215,7 +23197,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
